--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_Artelys/trans/BCDTRtSY/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{E41B225F-6D19-4349-96F3-FD04DF3C3CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A0B9DE8-3CFC-4834-810F-0BE767B7E2E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB6B1C-DA38-4CA5-A475-8D336914E69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" firstSheet="7" activeTab="8" xr2:uid="{16D304A3-D589-438E-BF59-57940106F8D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{16D304A3-D589-438E-BF59-57940106F8D2}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="199">
   <si>
     <t>BCDTRtSY Bau Cargo Distance Transported Relative to Start Year</t>
   </si>
@@ -791,9 +791,6 @@
   </si>
   <si>
     <t>There is no data for Freight - Aicraft in REF2020. Transport volumes for freight are taken into account in the passenger section.</t>
-  </si>
-  <si>
-    <t>In order to have data for international ships, we use the data for Inland waterways and domestic maritime from REF2020 and we had Intra-EU and International bunkers</t>
   </si>
   <si>
     <t>Tons km (mio tkm)</t>
@@ -4419,25 +4416,25 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15854805.699999999</c:v>
+                  <c:v>351144.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16647249.1</c:v>
+                  <c:v>368781.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17625293.400000002</c:v>
+                  <c:v>390924.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18687927</c:v>
+                  <c:v>413570.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19699258.100000001</c:v>
+                  <c:v>438975.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20789745.199999999</c:v>
+                  <c:v>468752.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22141792.400000002</c:v>
+                  <c:v>502364.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4533,25 +4530,25 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15584737011.913256</c:v>
+                  <c:v>283687.51191325404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16602327508.148104</c:v>
+                  <c:v>323859.90814810456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17578587448.72422</c:v>
+                  <c:v>344218.14872422197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18635641297.392529</c:v>
+                  <c:v>361285.09739252937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19634200163.317673</c:v>
+                  <c:v>373917.8633176717</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20705654814.661896</c:v>
+                  <c:v>384661.81466189219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22035118064.726059</c:v>
+                  <c:v>395689.76472605631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19034,25 +19031,25 @@
                       <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>15854805.699999999</c:v>
+                        <c:v>351144.7</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>16647249.1</c:v>
+                        <c:v>368781.5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>17625293.400000002</c:v>
+                        <c:v>390924.1</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>18687927</c:v>
+                        <c:v>413570.8</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>19699258.100000001</c:v>
+                        <c:v>438975.8</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>20789745.199999999</c:v>
+                        <c:v>468752.2</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>22141792.400000002</c:v>
+                        <c:v>502364.1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19698,25 +19695,25 @@
                       <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>15584737011.913256</c:v>
+                        <c:v>283687.51191325404</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>16602327508.148104</c:v>
+                        <c:v>323859.90814810456</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>17578587448.72422</c:v>
+                        <c:v>344218.14872422197</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>18635641297.392529</c:v>
+                        <c:v>361285.09739252937</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>19634200163.317673</c:v>
+                        <c:v>373917.8633176717</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>20705654814.661896</c:v>
+                        <c:v>384661.81466189219</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>22035118064.726059</c:v>
+                        <c:v>395689.76472605631</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20863,25 +20860,25 @@
                       <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>15854805.699999999</c:v>
+                        <c:v>351144.7</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>16647249.1</c:v>
+                        <c:v>368781.5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>17625293.400000002</c:v>
+                        <c:v>390924.1</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>18687927</c:v>
+                        <c:v>413570.8</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>19699258.100000001</c:v>
+                        <c:v>438975.8</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>20789745.199999999</c:v>
+                        <c:v>468752.2</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>22141792.400000002</c:v>
+                        <c:v>502364.1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -21527,25 +21524,25 @@
                       <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>15584737011.913256</c:v>
+                        <c:v>283687.51191325404</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>16602327508.148104</c:v>
+                        <c:v>323859.90814810456</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>17578587448.72422</c:v>
+                        <c:v>344218.14872422197</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>18635641297.392529</c:v>
+                        <c:v>361285.09739252937</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>19634200163.317673</c:v>
+                        <c:v>373917.8633176717</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>20705654814.661896</c:v>
+                        <c:v>384661.81466189219</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>22035118064.726059</c:v>
+                        <c:v>395689.76472605631</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -27959,9 +27956,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -27999,7 +27996,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -28105,7 +28102,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -28247,7 +28244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -28440,7 +28437,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30291,7 +30288,7 @@
   <dimension ref="A1:AZ218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="21" ySplit="2" topLeftCell="BA188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="21" ySplit="2" topLeftCell="V188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AO204" sqref="AO204"/>
@@ -65626,6 +65623,33 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:I31"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:I45"/>
     <mergeCell ref="A46:B46"/>
@@ -65635,33 +65659,6 @@
     <mergeCell ref="C43:I43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:I44"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:I4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=ITF_OUTLOOK_2023_URB_PASS&amp;Coords=[SCENARIO].[CURRENT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
@@ -67519,7 +67516,7 @@
         <v>0.96686212916609948</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="58" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B45" s="39" t="s">
         <v>153</v>
       </c>
@@ -68820,8 +68817,8 @@
   </sheetPr>
   <dimension ref="A1:AF47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -69013,31 +69010,29 @@
       </c>
       <c r="D6" s="111">
         <f>D46/$C46</f>
-        <v>1.0652940434899212</v>
+        <v>1.1416079120434968</v>
       </c>
       <c r="E6" s="111">
         <f t="shared" si="2"/>
-        <v>1.1279360976888368</v>
+        <v>1.2133708191902257</v>
       </c>
       <c r="F6" s="111">
         <f t="shared" si="2"/>
-        <v>1.1957623207338761</v>
+        <v>1.2735319047212874</v>
       </c>
       <c r="G6" s="111">
         <f t="shared" si="2"/>
-        <v>1.259835193132161</v>
+        <v>1.3180624723163996</v>
       </c>
       <c r="H6" s="111">
         <f t="shared" si="2"/>
-        <v>1.3285854486241326</v>
+        <v>1.3559349583901108</v>
       </c>
       <c r="I6" s="111">
         <f t="shared" si="2"/>
-        <v>1.4138909144172285</v>
-      </c>
-      <c r="J6" s="127" t="s">
-        <v>23</v>
-      </c>
+        <v>1.3948085414737972</v>
+      </c>
+      <c r="J6" s="127"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="158"/>
@@ -69728,124 +69723,124 @@
         <v>167</v>
       </c>
       <c r="C18" s="110">
-        <f>('Potencia - Activity'!W188+'Potencia - Activity'!W204)</f>
-        <v>15854805.699999999</v>
+        <f>('Potencia - Activity'!W188)</f>
+        <v>351144.7</v>
       </c>
       <c r="D18" s="110">
-        <f>('Potencia - Activity'!X188+'Potencia - Activity'!X204)</f>
-        <v>16044827.1</v>
+        <f>('Potencia - Activity'!X188)</f>
+        <v>355421.1</v>
       </c>
       <c r="E18" s="110">
-        <f>('Potencia - Activity'!Y188+'Potencia - Activity'!Y204)</f>
-        <v>16254276.5</v>
+        <f>('Potencia - Activity'!Y188)</f>
+        <v>360075.6</v>
       </c>
       <c r="F18" s="110">
-        <f>('Potencia - Activity'!Z188+'Potencia - Activity'!Z204)</f>
-        <v>16452939.1</v>
+        <f>('Potencia - Activity'!Z188)</f>
+        <v>364512.1</v>
       </c>
       <c r="G18" s="110">
-        <f>('Potencia - Activity'!AA188+'Potencia - Activity'!AA204)</f>
-        <v>16647249.1</v>
+        <f>('Potencia - Activity'!AA188)</f>
+        <v>368781.5</v>
       </c>
       <c r="H18" s="110">
-        <f>('Potencia - Activity'!AB188+'Potencia - Activity'!AB204)</f>
-        <v>16841433</v>
+        <f>('Potencia - Activity'!AB188)</f>
+        <v>373183.8</v>
       </c>
       <c r="I18" s="110">
-        <f>('Potencia - Activity'!AC188+'Potencia - Activity'!AC204)</f>
-        <v>17034363.800000001</v>
+        <f>('Potencia - Activity'!AC188)</f>
+        <v>377623.6</v>
       </c>
       <c r="J18" s="110">
-        <f>('Potencia - Activity'!AD188+'Potencia - Activity'!AD204)</f>
-        <v>17228231.100000001</v>
+        <f>('Potencia - Activity'!AD188)</f>
+        <v>382055</v>
       </c>
       <c r="K18" s="110">
-        <f>('Potencia - Activity'!AE188+'Potencia - Activity'!AE204)</f>
-        <v>17424851.800000001</v>
+        <f>('Potencia - Activity'!AE188)</f>
+        <v>386491.1</v>
       </c>
       <c r="L18" s="110">
-        <f>('Potencia - Activity'!AF188+'Potencia - Activity'!AF204)</f>
-        <v>17625293.400000002</v>
+        <f>('Potencia - Activity'!AF188)</f>
+        <v>390924.1</v>
       </c>
       <c r="M18" s="110">
-        <f>('Potencia - Activity'!AG188+'Potencia - Activity'!AG204)</f>
-        <v>17827859.599999998</v>
+        <f>('Potencia - Activity'!AG188)</f>
+        <v>395420.7</v>
       </c>
       <c r="N18" s="110">
-        <f>('Potencia - Activity'!AH188+'Potencia - Activity'!AH204)</f>
-        <v>18033209.200000003</v>
+        <f>('Potencia - Activity'!AH188)</f>
+        <v>399966.1</v>
       </c>
       <c r="O18" s="110">
-        <f>('Potencia - Activity'!AI188+'Potencia - Activity'!AI204)</f>
-        <v>18243986.599999998</v>
+        <f>('Potencia - Activity'!AI188)</f>
+        <v>404404.4</v>
       </c>
       <c r="P18" s="110">
-        <f>('Potencia - Activity'!AJ188+'Potencia - Activity'!AJ204)</f>
-        <v>18461860.199999999</v>
+        <f>('Potencia - Activity'!AJ188)</f>
+        <v>408934.40000000002</v>
       </c>
       <c r="Q18" s="110">
-        <f>('Potencia - Activity'!AK188+'Potencia - Activity'!AK204)</f>
-        <v>18687927</v>
+        <f>('Potencia - Activity'!AK188)</f>
+        <v>413570.8</v>
       </c>
       <c r="R18" s="110">
-        <f>('Potencia - Activity'!AL188+'Potencia - Activity'!AL204)</f>
-        <v>18924494.099999998</v>
+        <f>('Potencia - Activity'!AL188)</f>
+        <v>418326.4</v>
       </c>
       <c r="S18" s="110">
-        <f>('Potencia - Activity'!AM188+'Potencia - Activity'!AM204)</f>
-        <v>19108025.400000002</v>
+        <f>('Potencia - Activity'!AM188)</f>
+        <v>423242.3</v>
       </c>
       <c r="T18" s="110">
-        <f>('Potencia - Activity'!AN188+'Potencia - Activity'!AN204)</f>
-        <v>19298858.800000001</v>
+        <f>('Potencia - Activity'!AN188)</f>
+        <v>428313.1</v>
       </c>
       <c r="U18" s="110">
-        <f>('Potencia - Activity'!AO188+'Potencia - Activity'!AO204)</f>
-        <v>19496166.300000001</v>
+        <f>('Potencia - Activity'!AO188)</f>
+        <v>433521</v>
       </c>
       <c r="V18" s="110">
-        <f>('Potencia - Activity'!AP188+'Potencia - Activity'!AP204)</f>
-        <v>19699258.100000001</v>
+        <f>('Potencia - Activity'!AP188)</f>
+        <v>438975.8</v>
       </c>
       <c r="W18" s="110">
-        <f>('Potencia - Activity'!AQ188+'Potencia - Activity'!AQ204)</f>
-        <v>19902622.5</v>
+        <f>('Potencia - Activity'!AQ188)</f>
+        <v>444659.6</v>
       </c>
       <c r="X18" s="110">
-        <f>('Potencia - Activity'!AR188+'Potencia - Activity'!AR204)</f>
-        <v>20111179.899999999</v>
+        <f>('Potencia - Activity'!AR188)</f>
+        <v>450369.2</v>
       </c>
       <c r="Y18" s="110">
-        <f>('Potencia - Activity'!AS188+'Potencia - Activity'!AS204)</f>
-        <v>20325684.599999998</v>
+        <f>('Potencia - Activity'!AS188)</f>
+        <v>456287.4</v>
       </c>
       <c r="Z18" s="110">
-        <f>('Potencia - Activity'!AT188+'Potencia - Activity'!AT204)</f>
-        <v>20550292.600000001</v>
+        <f>('Potencia - Activity'!AT188)</f>
+        <v>462385.1</v>
       </c>
       <c r="AA18" s="110">
-        <f>('Potencia - Activity'!AU188+'Potencia - Activity'!AU204)</f>
-        <v>20789745.199999999</v>
+        <f>('Potencia - Activity'!AU188)</f>
+        <v>468752.2</v>
       </c>
       <c r="AB18" s="110">
-        <f>('Potencia - Activity'!AV188+'Potencia - Activity'!AV204)</f>
-        <v>21044813.400000002</v>
+        <f>('Potencia - Activity'!AV188)</f>
+        <v>475327.1</v>
       </c>
       <c r="AC18" s="110">
-        <f>('Potencia - Activity'!AW188+'Potencia - Activity'!AW204)</f>
-        <v>21310426.100000001</v>
+        <f>('Potencia - Activity'!AW188)</f>
+        <v>481964.6</v>
       </c>
       <c r="AD18" s="110">
-        <f>('Potencia - Activity'!AX188+'Potencia - Activity'!AX204)</f>
-        <v>21583176.199999999</v>
+        <f>('Potencia - Activity'!AX188)</f>
+        <v>488707</v>
       </c>
       <c r="AE18" s="110">
-        <f>('Potencia - Activity'!AY188+'Potencia - Activity'!AY204)</f>
-        <v>21861162.399999999</v>
+        <f>('Potencia - Activity'!AY188)</f>
+        <v>495508</v>
       </c>
       <c r="AF18" s="110">
-        <f>('Potencia - Activity'!AZ188+'Potencia - Activity'!AZ204)</f>
-        <v>22141792.400000002</v>
+        <f>('Potencia - Activity'!AZ188)</f>
+        <v>502364.1</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
@@ -70109,123 +70104,123 @@
       </c>
       <c r="C22" s="109">
         <f>C18/('Potencia - Activity'!W189+'Potencia - Activity'!W205)</f>
-        <v>13.138788241655565</v>
+        <v>0.29099163640205766</v>
       </c>
       <c r="D22" s="109">
         <f>D18/('Potencia - Activity'!X189+'Potencia - Activity'!X205)</f>
-        <v>13.160730630612081</v>
+        <v>0.29153329782754961</v>
       </c>
       <c r="E22" s="109">
         <f>E18/('Potencia - Activity'!Y189+'Potencia - Activity'!Y205)</f>
-        <v>13.188480909037136</v>
+        <v>0.2921600463982566</v>
       </c>
       <c r="F22" s="109">
         <f>F18/('Potencia - Activity'!Z189+'Potencia - Activity'!Z205)</f>
-        <v>13.210974005608161</v>
+        <v>0.29268690831230526</v>
       </c>
       <c r="G22" s="109">
         <f>G18/('Potencia - Activity'!AA189+'Potencia - Activity'!AA205)</f>
-        <v>13.231289930922047</v>
+        <v>0.29310878442134497</v>
       </c>
       <c r="H22" s="109">
         <f>H18/('Potencia - Activity'!AB189+'Potencia - Activity'!AB205)</f>
-        <v>13.245966419455881</v>
+        <v>0.29351303318933369</v>
       </c>
       <c r="I22" s="109">
         <f>I18/('Potencia - Activity'!AC189+'Potencia - Activity'!AC205)</f>
-        <v>13.256976574238184</v>
+        <v>0.29388518866078756</v>
       </c>
       <c r="J22" s="109">
         <f>J18/('Potencia - Activity'!AD189+'Potencia - Activity'!AD205)</f>
-        <v>13.267240674282215</v>
+        <v>0.29421567463260295</v>
       </c>
       <c r="K22" s="109">
         <f>K18/('Potencia - Activity'!AE189+'Potencia - Activity'!AE205)</f>
-        <v>13.278820333860962</v>
+        <v>0.29453024544726913</v>
       </c>
       <c r="L22" s="109">
         <f>L18/('Potencia - Activity'!AF189+'Potencia - Activity'!AF205)</f>
-        <v>13.293273466705827</v>
+        <v>0.29484110409338515</v>
       </c>
       <c r="M22" s="109">
         <f>M18/('Potencia - Activity'!AG189+'Potencia - Activity'!AG205)</f>
-        <v>13.310546346682434</v>
+        <v>0.2952270026732548</v>
       </c>
       <c r="N22" s="109">
         <f>N18/('Potencia - Activity'!AH189+'Potencia - Activity'!AH205)</f>
-        <v>13.329270858980347</v>
+        <v>0.29563548130468198</v>
       </c>
       <c r="O22" s="109">
         <f>O18/('Potencia - Activity'!AI189+'Potencia - Activity'!AI205)</f>
-        <v>13.351384940089236</v>
+        <v>0.29595279443286943</v>
       </c>
       <c r="P22" s="109">
         <f>P18/('Potencia - Activity'!AJ189+'Potencia - Activity'!AJ205)</f>
-        <v>13.374905004999507</v>
+        <v>0.29625718611369783</v>
       </c>
       <c r="Q22" s="109">
         <f>Q18/('Potencia - Activity'!AK189+'Potencia - Activity'!AK205)</f>
-        <v>13.39943042160116</v>
+        <v>0.29653439672607501</v>
       </c>
       <c r="R22" s="109">
         <f>R18/('Potencia - Activity'!AL189+'Potencia - Activity'!AL205)</f>
-        <v>13.425278506600907</v>
+        <v>0.2967661062423716</v>
       </c>
       <c r="S22" s="109">
         <f>S18/('Potencia - Activity'!AM189+'Potencia - Activity'!AM205)</f>
-        <v>13.415094109133065</v>
+        <v>0.29714400973456567</v>
       </c>
       <c r="T22" s="109">
         <f>T18/('Potencia - Activity'!AN189+'Potencia - Activity'!AN205)</f>
-        <v>13.405629002216296</v>
+        <v>0.29752052050814365</v>
       </c>
       <c r="U22" s="109">
         <f>U18/('Potencia - Activity'!AO189+'Potencia - Activity'!AO205)</f>
-        <v>13.396781721382441</v>
+        <v>0.29789375609888169</v>
       </c>
       <c r="V22" s="109">
         <f>V18/('Potencia - Activity'!AP189+'Potencia - Activity'!AP205)</f>
-        <v>13.387818665021104</v>
+        <v>0.29833247419264847</v>
       </c>
       <c r="W22" s="109">
         <f>W18/('Potencia - Activity'!AQ189+'Potencia - Activity'!AQ205)</f>
-        <v>13.379670528355415</v>
+        <v>0.29892537756118859</v>
       </c>
       <c r="X22" s="109">
         <f>X18/('Potencia - Activity'!AR189+'Potencia - Activity'!AR205)</f>
-        <v>13.372424646053817</v>
+        <v>0.29946170338337735</v>
       </c>
       <c r="Y22" s="109">
         <f>Y18/('Potencia - Activity'!AS189+'Potencia - Activity'!AS205)</f>
-        <v>13.366286789752923</v>
+        <v>0.30005721169906913</v>
       </c>
       <c r="Z22" s="109">
         <f>Z18/('Potencia - Activity'!AT189+'Potencia - Activity'!AT205)</f>
-        <v>13.36295245386157</v>
+        <v>0.30066871683734697</v>
       </c>
       <c r="AA22" s="109">
         <f>AA18/('Potencia - Activity'!AU189+'Potencia - Activity'!AU205)</f>
-        <v>13.363409751461958</v>
+        <v>0.30130853746582942</v>
       </c>
       <c r="AB22" s="109">
         <f>AB18/('Potencia - Activity'!AV189+'Potencia - Activity'!AV205)</f>
-        <v>13.367332667872036</v>
+        <v>0.30192025707174375</v>
       </c>
       <c r="AC22" s="109">
         <f>AC18/('Potencia - Activity'!AW189+'Potencia - Activity'!AW205)</f>
-        <v>13.374856337709939</v>
+        <v>0.3024907739813722</v>
       </c>
       <c r="AD22" s="109">
         <f>AD18/('Potencia - Activity'!AX189+'Potencia - Activity'!AX205)</f>
-        <v>13.384230698274351</v>
+        <v>0.30305860320324696</v>
       </c>
       <c r="AE22" s="109">
         <f>AE18/('Potencia - Activity'!AY189+'Potencia - Activity'!AY205)</f>
-        <v>13.394422212138473</v>
+        <v>0.30359974643856591</v>
       </c>
       <c r="AF22" s="109">
         <f>AF18/('Potencia - Activity'!AZ189+'Potencia - Activity'!AZ205)</f>
-        <v>13.404715474648647</v>
+        <v>0.30413291315918667</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
@@ -70628,36 +70623,34 @@
         <v>167</v>
       </c>
       <c r="C32" s="111">
-        <f>'REF2020'!F15*1000+'Potencia - Activity'!V204</f>
-        <v>15584737.011913255</v>
+        <f>'REF2020'!F15</f>
+        <v>283.68751191325401</v>
       </c>
       <c r="D32" s="111">
-        <f>'REF2020'!G15*1000+'Potencia - Activity'!AA204</f>
-        <v>16602327.508148104</v>
+        <f>'REF2020'!G15</f>
+        <v>323.85990814810458</v>
       </c>
       <c r="E32" s="111">
-        <f>'REF2020'!H15*1000+'Potencia - Activity'!AF204</f>
-        <v>17578587.448724221</v>
+        <f>'REF2020'!H15</f>
+        <v>344.21814872422198</v>
       </c>
       <c r="F32" s="111">
-        <f>'REF2020'!I15*1000+'Potencia - Activity'!AK204</f>
-        <v>18635641.297392529</v>
+        <f>'REF2020'!I15</f>
+        <v>361.28509739252934</v>
       </c>
       <c r="G32" s="111">
-        <f>'REF2020'!J15*1000+'Potencia - Activity'!AP204</f>
-        <v>19634200.163317673</v>
+        <f>'REF2020'!J15</f>
+        <v>373.91786331767167</v>
       </c>
       <c r="H32" s="111">
-        <f>'REF2020'!K15*1000+'Potencia - Activity'!AU204</f>
-        <v>20705654.814661894</v>
+        <f>'REF2020'!K15</f>
+        <v>384.66181466189221</v>
       </c>
       <c r="I32" s="111">
-        <f>'REF2020'!L15*1000+'Potencia - Activity'!AZ204</f>
-        <v>22035118.064726058</v>
-      </c>
-      <c r="J32" s="127" t="s">
-        <v>198</v>
-      </c>
+        <f>'REF2020'!L15</f>
+        <v>395.6897647260563</v>
+      </c>
+      <c r="J32" s="127"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="158"/>
@@ -70691,7 +70684,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B35" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C35" s="124">
         <v>2021</v>
@@ -70868,31 +70861,31 @@
       </c>
       <c r="C40" s="111">
         <f>SUMPRODUCT($C$14:$AF$19*($B$14:$B$19=$B40)*($C$13:$AF$13=C$35))</f>
-        <v>15854805.699999999</v>
+        <v>351144.7</v>
       </c>
       <c r="D40" s="111">
         <f t="shared" si="4"/>
-        <v>16647249.1</v>
+        <v>368781.5</v>
       </c>
       <c r="E40" s="111">
         <f t="shared" si="4"/>
-        <v>17625293.400000002</v>
+        <v>390924.1</v>
       </c>
       <c r="F40" s="111">
         <f t="shared" si="4"/>
-        <v>18687927</v>
+        <v>413570.8</v>
       </c>
       <c r="G40" s="111">
         <f t="shared" si="4"/>
-        <v>19699258.100000001</v>
+        <v>438975.8</v>
       </c>
       <c r="H40" s="111">
         <f t="shared" si="4"/>
-        <v>20789745.199999999</v>
+        <v>468752.2</v>
       </c>
       <c r="I40" s="111">
         <f t="shared" si="4"/>
-        <v>22141792.400000002</v>
+        <v>502364.1</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -71084,31 +71077,31 @@
       </c>
       <c r="C46" s="111">
         <f t="shared" si="8"/>
-        <v>15584737011.913256</v>
+        <v>283687.51191325404</v>
       </c>
       <c r="D46" s="111">
         <f t="shared" si="8"/>
-        <v>16602327508.148104</v>
+        <v>323859.90814810456</v>
       </c>
       <c r="E46" s="111">
         <f t="shared" si="8"/>
-        <v>17578587448.72422</v>
+        <v>344218.14872422197</v>
       </c>
       <c r="F46" s="111">
         <f t="shared" si="8"/>
-        <v>18635641297.392529</v>
+        <v>361285.09739252937</v>
       </c>
       <c r="G46" s="111">
         <f t="shared" si="8"/>
-        <v>19634200163.317673</v>
+        <v>373917.8633176717</v>
       </c>
       <c r="H46" s="111">
         <f t="shared" si="8"/>
-        <v>20705654814.661896</v>
+        <v>384661.81466189219</v>
       </c>
       <c r="I46" s="111">
         <f t="shared" si="8"/>
-        <v>22035118064.726059</v>
+        <v>395689.76472605631</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -72002,8 +71995,8 @@
   </sheetPr>
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -72583,119 +72576,119 @@
       </c>
       <c r="C6" s="145">
         <f t="shared" si="4"/>
-        <v>1.0163235108724802</v>
+        <v>1.0354019780108743</v>
       </c>
       <c r="D6" s="145">
         <f t="shared" si="4"/>
-        <v>1.0326470217449606</v>
+        <v>1.0708039560217484</v>
       </c>
       <c r="E6" s="145">
         <f t="shared" si="4"/>
-        <v>1.048970532617441</v>
+        <v>1.1062059340326225</v>
       </c>
       <c r="F6" s="145">
         <f>'Comparison - Freight'!D6</f>
-        <v>1.0652940434899212</v>
+        <v>1.1416079120434968</v>
       </c>
       <c r="G6" s="145">
         <f t="shared" si="5"/>
-        <v>1.0778224543297044</v>
+        <v>1.1559604934728425</v>
       </c>
       <c r="H6" s="145">
         <f t="shared" si="5"/>
-        <v>1.0903508651694875</v>
+        <v>1.1703130749021884</v>
       </c>
       <c r="I6" s="145">
         <f t="shared" si="5"/>
-        <v>1.1028792760092705</v>
+        <v>1.1846656563315341</v>
       </c>
       <c r="J6" s="145">
         <f t="shared" si="5"/>
-        <v>1.1154076868490537</v>
+        <v>1.19901823776088</v>
       </c>
       <c r="K6" s="145">
         <f>'Comparison - Freight'!E6</f>
-        <v>1.1279360976888368</v>
+        <v>1.2133708191902257</v>
       </c>
       <c r="L6" s="145">
         <f t="shared" si="6"/>
-        <v>1.1411260072331693</v>
+        <v>1.2238399845028431</v>
       </c>
       <c r="M6" s="145">
         <f t="shared" si="6"/>
-        <v>1.1543159167775017</v>
+        <v>1.2343091498154606</v>
       </c>
       <c r="N6" s="145">
         <f t="shared" si="6"/>
-        <v>1.1675058263218341</v>
+        <v>1.2447783151280778</v>
       </c>
       <c r="O6" s="145">
         <f t="shared" si="6"/>
-        <v>1.1806957358661665</v>
+        <v>1.2552474804406952</v>
       </c>
       <c r="P6" s="145">
         <f t="shared" si="6"/>
-        <v>1.1938856454104989</v>
+        <v>1.2657166457533127</v>
       </c>
       <c r="Q6" s="145">
         <f t="shared" si="6"/>
-        <v>1.2070755549548313</v>
+        <v>1.2761858110659301</v>
       </c>
       <c r="R6" s="145">
         <f t="shared" si="6"/>
-        <v>1.2202654644991637</v>
+        <v>1.2866549763785475</v>
       </c>
       <c r="S6" s="145">
         <f t="shared" si="6"/>
-        <v>1.2334553740434961</v>
+        <v>1.2971241416911647</v>
       </c>
       <c r="T6" s="145">
         <f t="shared" si="6"/>
-        <v>1.2466452835878286</v>
+        <v>1.3075933070037822</v>
       </c>
       <c r="U6" s="145">
         <f>'Comparison - Freight'!G6</f>
-        <v>1.259835193132161</v>
+        <v>1.3180624723163996</v>
       </c>
       <c r="V6" s="145">
         <f t="shared" si="7"/>
-        <v>1.2752407652606677</v>
+        <v>1.3257370792321395</v>
       </c>
       <c r="W6" s="145">
         <f t="shared" si="7"/>
-        <v>1.2906463373891746</v>
+        <v>1.3334116861478791</v>
       </c>
       <c r="X6" s="145">
         <f t="shared" si="7"/>
-        <v>1.3060519095176812</v>
+        <v>1.3410862930636189</v>
       </c>
       <c r="Y6" s="145">
         <f t="shared" si="7"/>
-        <v>1.3214574816461879</v>
+        <v>1.3487608999793586</v>
       </c>
       <c r="Z6" s="145">
         <f t="shared" si="7"/>
-        <v>1.3368630537746946</v>
+        <v>1.3564355068950984</v>
       </c>
       <c r="AA6" s="145">
         <f t="shared" si="7"/>
-        <v>1.3522686259032015</v>
+        <v>1.3641101138108382</v>
       </c>
       <c r="AB6" s="145">
         <f t="shared" si="7"/>
-        <v>1.3676741980317082</v>
+        <v>1.3717847207265779</v>
       </c>
       <c r="AC6" s="145">
         <f t="shared" si="7"/>
-        <v>1.3830797701602149</v>
+        <v>1.3794593276423177</v>
       </c>
       <c r="AD6" s="145">
         <f t="shared" si="7"/>
-        <v>1.3984853422887218</v>
+        <v>1.3871339345580573</v>
       </c>
       <c r="AE6" s="145">
         <f>'Comparison - Freight'!I6</f>
-        <v>1.4138909144172285</v>
+        <v>1.3948085414737972</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
@@ -72802,14 +72795,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73042,21 +73033,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A49881DA-BF58-4CF0-9A19-05DE5B47D787}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18FEDB8C-86F5-4E68-9A08-E66F03358ABC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -73081,9 +73071,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18FEDB8C-86F5-4E68-9A08-E66F03358ABC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A49881DA-BF58-4CF0-9A19-05DE5B47D787}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB6B1C-DA38-4CA5-A475-8D336914E69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2803ACE-7652-4AB1-A549-F5EAA8CE7414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{16D304A3-D589-438E-BF59-57940106F8D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{16D304A3-D589-438E-BF59-57940106F8D2}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="198">
   <si>
     <t>BCDTRtSY Bau Cargo Distance Transported Relative to Start Year</t>
   </si>
@@ -663,9 +663,6 @@
   </si>
   <si>
     <t xml:space="preserve">international aircraft </t>
-  </si>
-  <si>
-    <t>In order to have international passenger aircraft, the Potencia split between EU Aircraft and International Aircraft is used</t>
   </si>
   <si>
     <t>Other sources (for comparison)</t>
@@ -6461,7 +6458,7 @@
                   <c:v>2.109681962563787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3021441819012414</c:v>
+                  <c:v>2.3021441819012418</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.4901191522324551</c:v>
@@ -28258,27 +28255,27 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="42"/>
-    <col min="2" max="3" width="45.81640625" style="42" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="42"/>
+    <col min="1" max="1" width="10.85546875" style="42"/>
+    <col min="2" max="3" width="45.85546875" style="42" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="42"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="43"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="140" t="s">
         <v>2</v>
       </c>
@@ -28289,7 +28286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="140" t="s">
         <v>5</v>
       </c>
@@ -28300,7 +28297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="140" t="s">
         <v>8</v>
       </c>
@@ -28311,7 +28308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="140"/>
       <c r="C17" s="143" t="s">
         <v>11</v>
@@ -28320,7 +28317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="140"/>
       <c r="C18" s="143" t="s">
         <v>13</v>
@@ -28329,94 +28326,94 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="43"/>
       <c r="C19" s="45"/>
       <c r="D19" s="44"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="47"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="46"/>
       <c r="C22" s="47"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="128" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="129"/>
       <c r="D23" s="128"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="48" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="47"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="47"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="48"/>
       <c r="C26" s="47"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="128" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="129"/>
       <c r="D27" s="128"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="47"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="47"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C30" s="47"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="46" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="47"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
     </row>
@@ -28437,18 +28434,18 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72" style="57" customWidth="1"/>
-    <col min="2" max="12" width="6.81640625" style="57" customWidth="1"/>
-    <col min="13" max="15" width="4.54296875" style="57" customWidth="1"/>
-    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="6.85546875" style="57" customWidth="1"/>
+    <col min="13" max="15" width="4.5703125" style="57" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="49"/>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -28467,7 +28464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
       <c r="B2" s="59">
         <v>2005</v>
@@ -28512,7 +28509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>28</v>
       </c>
@@ -28533,7 +28530,7 @@
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>30</v>
       </c>
@@ -28552,7 +28549,7 @@
       <c r="N4" s="55"/>
       <c r="O4" s="55"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>31</v>
       </c>
@@ -28600,7 +28597,7 @@
         <v>0.68140442218813657</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>32</v>
       </c>
@@ -28648,7 +28645,7 @@
         <v>0.39922747482301624</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>33</v>
       </c>
@@ -28696,7 +28693,7 @@
         <v>0.5154694316258146</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
         <v>34</v>
       </c>
@@ -28744,7 +28741,7 @@
         <v>0.90122149887628122</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>35</v>
       </c>
@@ -28792,7 +28789,7 @@
         <v>1.3195925097929662</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>36</v>
       </c>
@@ -28840,7 +28837,7 @@
         <v>1.3648452896748431</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>37</v>
       </c>
@@ -28888,7 +28885,7 @@
         <v>0.54648380286401732</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>38</v>
       </c>
@@ -28936,7 +28933,7 @@
         <v>0.86142456576621118</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
         <v>39</v>
       </c>
@@ -28984,7 +28981,7 @@
         <v>0.73781498638656462</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
         <v>35</v>
       </c>
@@ -29032,7 +29029,7 @@
         <v>1.4079268171027559</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>37</v>
       </c>
@@ -29080,7 +29077,7 @@
         <v>0.69920748117893172</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="s">
         <v>40</v>
       </c>
@@ -29128,7 +29125,7 @@
         <v>-1.082141104890666</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>41</v>
       </c>
@@ -29147,7 +29144,7 @@
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
         <v>32</v>
       </c>
@@ -29195,7 +29192,7 @@
         <v>-6.0588601562261424E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
         <v>33</v>
       </c>
@@ -29243,7 +29240,7 @@
         <v>-1.7936489657772836</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
         <v>34</v>
       </c>
@@ -29291,7 +29288,7 @@
         <v>8.6436609834450451E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
         <v>39</v>
       </c>
@@ -29339,7 +29336,7 @@
         <v>-0.25906405537724497</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
         <v>35</v>
       </c>
@@ -29387,7 +29384,7 @@
         <v>0.48694336015047135</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
         <v>42</v>
       </c>
@@ -29435,7 +29432,7 @@
         <v>0.30700585281415727</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
         <v>37</v>
       </c>
@@ -29483,7 +29480,7 @@
         <v>0.36118106781326542</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>43</v>
       </c>
@@ -29531,7 +29528,7 @@
         <v>-0.54712801922968124</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="72" t="s">
         <v>44</v>
       </c>
@@ -29579,7 +29576,7 @@
         <v>-1.0384217710895594</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
         <v>45</v>
       </c>
@@ -29627,7 +29624,7 @@
         <v>0.28336250184959333</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>46</v>
       </c>
@@ -29675,7 +29672,7 @@
         <v>0.6676890470003416</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="s">
         <v>47</v>
       </c>
@@ -29723,7 +29720,7 @@
         <v>0.29375254882337831</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="65" t="s">
         <v>48</v>
       </c>
@@ -29771,7 +29768,7 @@
         <v>0.98658099893860207</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>49</v>
       </c>
@@ -29790,7 +29787,7 @@
       <c r="N31" s="53"/>
       <c r="O31" s="53"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
         <v>50</v>
       </c>
@@ -29838,7 +29835,7 @@
         <v>7.5453818125320149</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
         <v>52</v>
       </c>
@@ -29886,7 +29883,7 @@
         <v>9.0186341982212426E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
         <v>53</v>
       </c>
@@ -29934,7 +29931,7 @@
         <v>4.6765607708455059</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>55</v>
       </c>
@@ -29953,7 +29950,7 @@
       <c r="N35" s="53"/>
       <c r="O35" s="53"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="72" t="s">
         <v>56</v>
       </c>
@@ -29999,7 +29996,7 @@
         <v>-1.9347649850423587</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
         <v>57</v>
       </c>
@@ -30045,7 +30042,7 @@
         <v>-0.81155431543032952</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="66"/>
       <c r="B38" s="77"/>
       <c r="C38" s="77"/>
@@ -30062,7 +30059,7 @@
       <c r="N38" s="53"/>
       <c r="O38" s="53"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="79" t="s">
         <v>58</v>
       </c>
@@ -30081,7 +30078,7 @@
       <c r="N39" s="63"/>
       <c r="O39" s="63"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
         <v>59</v>
       </c>
@@ -30100,7 +30097,7 @@
       <c r="N40" s="63"/>
       <c r="O40" s="63"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="79" t="s">
         <v>60</v>
       </c>
@@ -30119,7 +30116,7 @@
       <c r="N41" s="63"/>
       <c r="O41" s="63"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>61</v>
       </c>
@@ -30138,7 +30135,7 @@
       <c r="N42" s="63"/>
       <c r="O42" s="63"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="147" t="s">
         <v>62</v>
       </c>
@@ -30157,7 +30154,7 @@
       <c r="N43" s="147"/>
       <c r="O43" s="147"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="79" t="s">
         <v>63</v>
       </c>
@@ -30176,7 +30173,7 @@
       <c r="N44" s="63"/>
       <c r="O44" s="63"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="79" t="s">
         <v>64</v>
       </c>
@@ -30195,7 +30192,7 @@
       <c r="N45" s="63"/>
       <c r="O45" s="63"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="79" t="s">
         <v>65</v>
       </c>
@@ -30214,7 +30211,7 @@
       <c r="N46" s="63"/>
       <c r="O46" s="63"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="147" t="s">
         <v>66</v>
       </c>
@@ -30233,7 +30230,7 @@
       <c r="N47" s="147"/>
       <c r="O47" s="147"/>
     </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="79" t="s">
         <v>67</v>
       </c>
@@ -30252,7 +30249,7 @@
       <c r="N48" s="78"/>
       <c r="O48" s="78"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
         <v>68</v>
       </c>
@@ -30288,19 +30285,19 @@
   <dimension ref="A1:AZ218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="21" ySplit="2" topLeftCell="V188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="21" ySplit="2" topLeftCell="V13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO204" sqref="AO204"/>
+      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -30458,7 +30455,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -30512,7 +30509,7 @@
       <c r="AY2" s="5"/>
       <c r="AZ2" s="5"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
@@ -30568,7 +30565,7 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>70</v>
       </c>
@@ -30726,7 +30723,7 @@
         <v>11634712.9</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>71</v>
       </c>
@@ -30884,7 +30881,7 @@
         <v>6822764.5999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>72</v>
       </c>
@@ -31042,7 +31039,7 @@
         <v>189503.7</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>73</v>
       </c>
@@ -31200,7 +31197,7 @@
         <v>5905715.7000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
@@ -31358,7 +31355,7 @@
         <v>727545.2</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>75</v>
       </c>
@@ -31516,7 +31513,7 @@
         <v>969402</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>76</v>
       </c>
@@ -31674,7 +31671,7 @@
         <v>467109.4</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>77</v>
       </c>
@@ -31832,7 +31829,7 @@
         <v>322466.7</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
@@ -31990,7 +31987,7 @@
         <v>179825.8</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>79</v>
       </c>
@@ -32148,7 +32145,7 @@
         <v>3842546.3</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>80</v>
       </c>
@@ -32306,7 +32303,7 @@
         <v>201012.9</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>81</v>
       </c>
@@ -32464,7 +32461,7 @@
         <v>1280340.6000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>82</v>
       </c>
@@ -32622,7 +32619,7 @@
         <v>2361192.7999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>83</v>
       </c>
@@ -32780,7 +32777,7 @@
         <v>4244757.9000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>71</v>
       </c>
@@ -32938,7 +32935,7 @@
         <v>2982013.7</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>84</v>
       </c>
@@ -33096,7 +33093,7 @@
         <v>215611.4</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>85</v>
       </c>
@@ -33254,7 +33251,7 @@
         <v>2766402.3</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>86</v>
       </c>
@@ -33412,7 +33409,7 @@
         <v>654512.19999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
@@ -33570,7 +33567,7 @@
         <v>105867.9</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>87</v>
       </c>
@@ -33728,7 +33725,7 @@
         <v>12597.8</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>82</v>
       </c>
@@ -33886,7 +33883,7 @@
         <v>93270.1</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>88</v>
       </c>
@@ -34044,7 +34041,7 @@
         <v>502364.1</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>89</v>
       </c>
@@ -34202,7 +34199,7 @@
         <v>265681.09999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>90</v>
       </c>
@@ -34360,7 +34357,7 @@
         <v>236683</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -34414,7 +34411,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="5"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -34468,7 +34465,7 @@
       <c r="AY29" s="20"/>
       <c r="AZ29" s="20"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -34524,7 +34521,7 @@
       <c r="AY30" s="21"/>
       <c r="AZ30" s="21"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>70</v>
       </c>
@@ -34682,7 +34679,7 @@
         <v>6822764.5999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>72</v>
       </c>
@@ -34840,7 +34837,7 @@
         <v>189503.7</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>91</v>
       </c>
@@ -34998,7 +34995,7 @@
         <v>115422</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>92</v>
       </c>
@@ -35156,7 +35153,7 @@
         <v>115422</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>93</v>
       </c>
@@ -35314,7 +35311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>94</v>
       </c>
@@ -35472,7 +35469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>95</v>
       </c>
@@ -35630,7 +35627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>92</v>
       </c>
@@ -35788,7 +35785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>96</v>
       </c>
@@ -35946,7 +35943,7 @@
         <v>74081.8</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>97</v>
       </c>
@@ -36104,7 +36101,7 @@
         <v>74081.8</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>98</v>
       </c>
@@ -36262,7 +36259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>99</v>
       </c>
@@ -36420,7 +36417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>100</v>
       </c>
@@ -36578,7 +36575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>101</v>
       </c>
@@ -36736,7 +36733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>73</v>
       </c>
@@ -36894,7 +36891,7 @@
         <v>5905715.7000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>91</v>
       </c>
@@ -37052,7 +37049,7 @@
         <v>3543837.9</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>102</v>
       </c>
@@ -37210,7 +37207,7 @@
         <v>100526.9</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>92</v>
       </c>
@@ -37368,7 +37365,7 @@
         <v>1483196.2</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>103</v>
       </c>
@@ -37526,7 +37523,7 @@
         <v>123621.5</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>104</v>
       </c>
@@ -37684,7 +37681,7 @@
         <v>36137.800000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>93</v>
       </c>
@@ -37842,7 +37839,7 @@
         <v>1776861.7</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>94</v>
       </c>
@@ -38000,7 +37997,7 @@
         <v>23493.8</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>105</v>
       </c>
@@ -38158,7 +38155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>95</v>
       </c>
@@ -38316,7 +38313,7 @@
         <v>526996.1</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>102</v>
       </c>
@@ -38474,7 +38471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>92</v>
       </c>
@@ -38632,7 +38629,7 @@
         <v>526993.19999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>103</v>
       </c>
@@ -38790,7 +38787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>104</v>
       </c>
@@ -38948,7 +38945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>93</v>
       </c>
@@ -39106,7 +39103,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>94</v>
       </c>
@@ -39264,7 +39261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
         <v>105</v>
       </c>
@@ -39422,7 +39419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>96</v>
       </c>
@@ -39580,7 +39577,7 @@
         <v>1757653.2</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>97</v>
       </c>
@@ -39738,7 +39735,7 @@
         <v>1372726</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>98</v>
       </c>
@@ -39896,7 +39893,7 @@
         <v>384927.2</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>99</v>
       </c>
@@ -40054,7 +40051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>106</v>
       </c>
@@ -40212,7 +40209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>100</v>
       </c>
@@ -40370,7 +40367,7 @@
         <v>77228.5</v>
       </c>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>101</v>
       </c>
@@ -40528,7 +40525,7 @@
         <v>66380.600000000006</v>
       </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>107</v>
       </c>
@@ -40686,7 +40683,7 @@
         <v>10847.9</v>
       </c>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>74</v>
       </c>
@@ -40844,7 +40841,7 @@
         <v>727545.2</v>
       </c>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>91</v>
       </c>
@@ -41002,7 +40999,7 @@
         <v>468029.9</v>
       </c>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>102</v>
       </c>
@@ -41160,7 +41157,7 @@
         <v>964.9</v>
       </c>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>92</v>
       </c>
@@ -41318,7 +41315,7 @@
         <v>543.5</v>
       </c>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
         <v>103</v>
       </c>
@@ -41476,7 +41473,7 @@
         <v>85191.8</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>93</v>
       </c>
@@ -41634,7 +41631,7 @@
         <v>365941.3</v>
       </c>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
         <v>94</v>
       </c>
@@ -41792,7 +41789,7 @@
         <v>7698.4</v>
       </c>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>108</v>
       </c>
@@ -41950,7 +41947,7 @@
         <v>7690</v>
       </c>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>95</v>
       </c>
@@ -42108,7 +42105,7 @@
         <v>9723.5</v>
       </c>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>102</v>
       </c>
@@ -42266,7 +42263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>92</v>
       </c>
@@ -42424,7 +42421,7 @@
         <v>7071.3</v>
       </c>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
         <v>103</v>
       </c>
@@ -42582,7 +42579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
         <v>93</v>
       </c>
@@ -42740,7 +42737,7 @@
         <v>2652.2</v>
       </c>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
         <v>94</v>
       </c>
@@ -42898,7 +42895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
         <v>108</v>
       </c>
@@ -43056,7 +43053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>96</v>
       </c>
@@ -43214,7 +43211,7 @@
         <v>202253</v>
       </c>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
         <v>97</v>
       </c>
@@ -43372,7 +43369,7 @@
         <v>172585.9</v>
       </c>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
         <v>98</v>
       </c>
@@ -43530,7 +43527,7 @@
         <v>5523.9</v>
       </c>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
         <v>99</v>
       </c>
@@ -43688,7 +43685,7 @@
         <v>24143.200000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
         <v>106</v>
       </c>
@@ -43846,7 +43843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>100</v>
       </c>
@@ -44004,7 +44001,7 @@
         <v>47538.7</v>
       </c>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
         <v>101</v>
       </c>
@@ -44162,7 +44159,7 @@
         <v>42711.1</v>
       </c>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
         <v>109</v>
       </c>
@@ -44320,7 +44317,7 @@
         <v>4827.6000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>83</v>
       </c>
@@ -44478,7 +44475,7 @@
         <v>2982013.7</v>
       </c>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
         <v>84</v>
       </c>
@@ -44636,7 +44633,7 @@
         <v>215611.4</v>
       </c>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>91</v>
       </c>
@@ -44794,7 +44791,7 @@
         <v>133261.5</v>
       </c>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
         <v>102</v>
       </c>
@@ -44952,7 +44949,7 @@
         <v>782.7</v>
       </c>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>92</v>
       </c>
@@ -45110,7 +45107,7 @@
         <v>5788.7</v>
       </c>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>103</v>
       </c>
@@ -45268,7 +45265,7 @@
         <v>2938.5</v>
       </c>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>104</v>
       </c>
@@ -45426,7 +45423,7 @@
         <v>1183.2</v>
       </c>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
         <v>93</v>
       </c>
@@ -45584,7 +45581,7 @@
         <v>121772.5</v>
       </c>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
         <v>94</v>
       </c>
@@ -45742,7 +45739,7 @@
         <v>795.8</v>
       </c>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
         <v>105</v>
       </c>
@@ -45900,7 +45897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>95</v>
       </c>
@@ -46058,7 +46055,7 @@
         <v>36089.599999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
         <v>102</v>
       </c>
@@ -46216,7 +46213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>92</v>
       </c>
@@ -46374,7 +46371,7 @@
         <v>3511.5</v>
       </c>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
         <v>103</v>
       </c>
@@ -46532,7 +46529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A107" s="28" t="s">
         <v>104</v>
       </c>
@@ -46690,7 +46687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
         <v>93</v>
       </c>
@@ -46848,7 +46845,7 @@
         <v>32578</v>
       </c>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
         <v>94</v>
       </c>
@@ -47006,7 +47003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
         <v>105</v>
       </c>
@@ -47164,7 +47161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>96</v>
       </c>
@@ -47322,7 +47319,7 @@
         <v>43211.3</v>
       </c>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
         <v>97</v>
       </c>
@@ -47480,7 +47477,7 @@
         <v>27669</v>
       </c>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
         <v>98</v>
       </c>
@@ -47638,7 +47635,7 @@
         <v>15542.4</v>
       </c>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
         <v>99</v>
       </c>
@@ -47796,7 +47793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>106</v>
       </c>
@@ -47954,7 +47951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
         <v>100</v>
       </c>
@@ -48112,7 +48109,7 @@
         <v>3048.9</v>
       </c>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
         <v>101</v>
       </c>
@@ -48270,7 +48267,7 @@
         <v>2633.1</v>
       </c>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
         <v>107</v>
       </c>
@@ -48428,7 +48425,7 @@
         <v>415.8</v>
       </c>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A119" s="24" t="s">
         <v>110</v>
       </c>
@@ -48586,7 +48583,7 @@
         <v>1794106.1</v>
       </c>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>91</v>
       </c>
@@ -48744,7 +48741,7 @@
         <v>1688181.5</v>
       </c>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
         <v>93</v>
       </c>
@@ -48902,7 +48899,7 @@
         <v>1556039.5</v>
       </c>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A122" s="28" t="s">
         <v>94</v>
       </c>
@@ -49060,7 +49057,7 @@
         <v>32609.1</v>
       </c>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
         <v>111</v>
       </c>
@@ -49218,7 +49215,7 @@
         <v>45400.1</v>
       </c>
     </row>
-    <row r="124" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A124" s="28" t="s">
         <v>105</v>
       </c>
@@ -49376,7 +49373,7 @@
         <v>54132.800000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>96</v>
       </c>
@@ -49534,7 +49531,7 @@
         <v>30310.400000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
         <v>97</v>
       </c>
@@ -49692,7 +49689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
         <v>98</v>
       </c>
@@ -49850,7 +49847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
         <v>99</v>
       </c>
@@ -50008,7 +50005,7 @@
         <v>30310.400000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
         <v>106</v>
       </c>
@@ -50166,7 +50163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A130" s="26" t="s">
         <v>100</v>
       </c>
@@ -50324,7 +50321,7 @@
         <v>75614.100000000006</v>
       </c>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
         <v>101</v>
       </c>
@@ -50482,7 +50479,7 @@
         <v>65414.400000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
         <v>107</v>
       </c>
@@ -50640,7 +50637,7 @@
         <v>10199.799999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A133" s="24" t="s">
         <v>112</v>
       </c>
@@ -50798,7 +50795,7 @@
         <v>972296.2</v>
       </c>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A134" s="26" t="s">
         <v>91</v>
       </c>
@@ -50956,7 +50953,7 @@
         <v>891596</v>
       </c>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
         <v>93</v>
       </c>
@@ -51114,7 +51111,7 @@
         <v>810555.7</v>
       </c>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
         <v>94</v>
       </c>
@@ -51272,7 +51269,7 @@
         <v>18718.5</v>
       </c>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
         <v>111</v>
       </c>
@@ -51430,7 +51427,7 @@
         <v>30469.4</v>
       </c>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
         <v>105</v>
       </c>
@@ -51588,7 +51585,7 @@
         <v>31852.5</v>
       </c>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
         <v>96</v>
       </c>
@@ -51746,7 +51743,7 @@
         <v>20240.5</v>
       </c>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A140" s="28" t="s">
         <v>97</v>
       </c>
@@ -51904,7 +51901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
         <v>98</v>
       </c>
@@ -52062,7 +52059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
         <v>99</v>
       </c>
@@ -52220,7 +52217,7 @@
         <v>20240.5</v>
       </c>
     </row>
-    <row r="143" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
         <v>106</v>
       </c>
@@ -52378,7 +52375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A144" s="26" t="s">
         <v>100</v>
       </c>
@@ -52536,7 +52533,7 @@
         <v>60459.7</v>
       </c>
     </row>
-    <row r="145" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
         <v>101</v>
       </c>
@@ -52694,7 +52691,7 @@
         <v>52501.3</v>
       </c>
     </row>
-    <row r="146" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A146" s="31" t="s">
         <v>107</v>
       </c>
@@ -52852,7 +52849,7 @@
         <v>7958.4</v>
       </c>
     </row>
-    <row r="147" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A147" s="33"/>
       <c r="B147" s="33"/>
       <c r="C147" s="33"/>
@@ -52906,7 +52903,7 @@
       <c r="AY147" s="33"/>
       <c r="AZ147" s="33"/>
     </row>
-    <row r="148" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>75</v>
       </c>
@@ -52962,7 +52959,7 @@
       <c r="AY148" s="21"/>
       <c r="AZ148" s="21"/>
     </row>
-    <row r="149" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A149" s="22" t="s">
         <v>70</v>
       </c>
@@ -53120,7 +53117,7 @@
         <v>969402</v>
       </c>
     </row>
-    <row r="150" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A150" s="34" t="s">
         <v>76</v>
       </c>
@@ -53278,7 +53275,7 @@
         <v>467109.4</v>
       </c>
     </row>
-    <row r="151" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>93</v>
       </c>
@@ -53436,7 +53433,7 @@
         <v>116011.9</v>
       </c>
     </row>
-    <row r="152" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>113</v>
       </c>
@@ -53594,7 +53591,7 @@
         <v>351097.5</v>
       </c>
     </row>
-    <row r="153" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A153" s="34" t="s">
         <v>77</v>
       </c>
@@ -53752,7 +53749,7 @@
         <v>322466.7</v>
       </c>
     </row>
-    <row r="154" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A154" s="34" t="s">
         <v>78</v>
       </c>
@@ -53910,7 +53907,7 @@
         <v>179825.8</v>
       </c>
     </row>
-    <row r="155" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A155" s="22" t="s">
         <v>83</v>
       </c>
@@ -54068,7 +54065,7 @@
         <v>654512.19999999995</v>
       </c>
     </row>
-    <row r="156" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A156" s="35" t="s">
         <v>93</v>
       </c>
@@ -54226,7 +54223,7 @@
         <v>122981.1</v>
       </c>
     </row>
-    <row r="157" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A157" s="36" t="s">
         <v>113</v>
       </c>
@@ -54384,7 +54381,7 @@
         <v>531531.1</v>
       </c>
     </row>
-    <row r="158" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A158" s="33"/>
       <c r="B158" s="33"/>
       <c r="C158" s="33"/>
@@ -54438,7 +54435,7 @@
       <c r="AY158" s="33"/>
       <c r="AZ158" s="33"/>
     </row>
-    <row r="159" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>79</v>
       </c>
@@ -54494,7 +54491,7 @@
       <c r="AY159" s="21"/>
       <c r="AZ159" s="21"/>
     </row>
-    <row r="160" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A160" s="22" t="s">
         <v>70</v>
       </c>
@@ -54652,7 +54649,7 @@
         <v>3842546.3</v>
       </c>
     </row>
-    <row r="161" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
         <v>80</v>
       </c>
@@ -54810,7 +54807,7 @@
         <v>201012.9</v>
       </c>
     </row>
-    <row r="162" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>114</v>
       </c>
@@ -54968,7 +54965,7 @@
         <v>180378.5</v>
       </c>
     </row>
-    <row r="163" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>115</v>
       </c>
@@ -55126,7 +55123,7 @@
         <v>20634.400000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>116</v>
       </c>
@@ -55284,7 +55281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>117</v>
       </c>
@@ -55442,7 +55439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
         <v>81</v>
       </c>
@@ -55600,7 +55597,7 @@
         <v>1280340.6000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>114</v>
       </c>
@@ -55758,7 +55755,7 @@
         <v>1262790.6000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
         <v>115</v>
       </c>
@@ -55916,7 +55913,7 @@
         <v>17550</v>
       </c>
     </row>
-    <row r="169" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
         <v>116</v>
       </c>
@@ -56074,7 +56071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>117</v>
       </c>
@@ -56232,7 +56229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A171" s="34" t="s">
         <v>82</v>
       </c>
@@ -56390,7 +56387,7 @@
         <v>2361192.7999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
         <v>114</v>
       </c>
@@ -56548,7 +56545,7 @@
         <v>2356711.7000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
         <v>115</v>
       </c>
@@ -56706,7 +56703,7 @@
         <v>4481.1000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
         <v>116</v>
       </c>
@@ -56864,7 +56861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
         <v>117</v>
       </c>
@@ -57022,7 +57019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A176" s="22" t="s">
         <v>83</v>
       </c>
@@ -57180,7 +57177,7 @@
         <v>105867.9</v>
       </c>
     </row>
-    <row r="177" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A177" s="34" t="s">
         <v>87</v>
       </c>
@@ -57338,7 +57335,7 @@
         <v>12597.8</v>
       </c>
     </row>
-    <row r="178" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
         <v>114</v>
       </c>
@@ -57496,7 +57493,7 @@
         <v>12196.7</v>
       </c>
     </row>
-    <row r="179" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
         <v>115</v>
       </c>
@@ -57654,7 +57651,7 @@
         <v>401.1</v>
       </c>
     </row>
-    <row r="180" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
         <v>116</v>
       </c>
@@ -57812,7 +57809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
         <v>117</v>
       </c>
@@ -57970,7 +57967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A182" s="34" t="s">
         <v>82</v>
       </c>
@@ -58128,7 +58125,7 @@
         <v>93270.1</v>
       </c>
     </row>
-    <row r="183" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
         <v>114</v>
       </c>
@@ -58286,7 +58283,7 @@
         <v>93130.4</v>
       </c>
     </row>
-    <row r="184" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
         <v>115</v>
       </c>
@@ -58444,7 +58441,7 @@
         <v>139.6</v>
       </c>
     </row>
-    <row r="185" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
         <v>116</v>
       </c>
@@ -58602,7 +58599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
         <v>117</v>
       </c>
@@ -58760,7 +58757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A187" s="33"/>
       <c r="B187" s="33"/>
       <c r="C187" s="33"/>
@@ -58814,7 +58811,7 @@
       <c r="AY187" s="33"/>
       <c r="AZ187" s="33"/>
     </row>
-    <row r="188" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>118</v>
       </c>
@@ -58972,7 +58969,7 @@
         <v>502364.1</v>
       </c>
     </row>
-    <row r="189" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A189" s="38" t="s">
         <v>89</v>
       </c>
@@ -59130,7 +59127,7 @@
         <v>265681.09999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A190" s="35" t="s">
         <v>119</v>
       </c>
@@ -59288,7 +59285,7 @@
         <v>265528.3</v>
       </c>
     </row>
-    <row r="191" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A191" s="35" t="s">
         <v>120</v>
       </c>
@@ -59446,7 +59443,7 @@
         <v>132.80000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A192" s="35" t="s">
         <v>111</v>
       </c>
@@ -59604,7 +59601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A193" s="35" t="s">
         <v>121</v>
       </c>
@@ -59762,7 +59759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A194" s="35" t="s">
         <v>122</v>
       </c>
@@ -59920,7 +59917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A195" s="35" t="s">
         <v>123</v>
       </c>
@@ -60078,7 +60075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A196" s="38" t="s">
         <v>90</v>
       </c>
@@ -60236,7 +60233,7 @@
         <v>236683</v>
       </c>
     </row>
-    <row r="197" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A197" s="35" t="s">
         <v>119</v>
       </c>
@@ -60394,7 +60391,7 @@
         <v>236536</v>
       </c>
     </row>
-    <row r="198" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A198" s="35" t="s">
         <v>120</v>
       </c>
@@ -60552,7 +60549,7 @@
         <v>134.6</v>
       </c>
     </row>
-    <row r="199" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A199" s="35" t="s">
         <v>111</v>
       </c>
@@ -60710,7 +60707,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="200" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A200" s="35" t="s">
         <v>121</v>
       </c>
@@ -60868,7 +60865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A201" s="35" t="s">
         <v>122</v>
       </c>
@@ -61026,7 +61023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A202" s="36" t="s">
         <v>123</v>
       </c>
@@ -61184,7 +61181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A203" s="33"/>
       <c r="B203" s="33"/>
       <c r="C203" s="33"/>
@@ -61238,7 +61235,7 @@
       <c r="AY203" s="33"/>
       <c r="AZ203" s="33"/>
     </row>
-    <row r="204" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>124</v>
       </c>
@@ -61396,7 +61393,7 @@
         <v>21639428.300000001</v>
       </c>
     </row>
-    <row r="205" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A205" s="38" t="s">
         <v>125</v>
       </c>
@@ -61554,7 +61551,7 @@
         <v>1386110.2</v>
       </c>
     </row>
-    <row r="206" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A206" s="35" t="s">
         <v>119</v>
       </c>
@@ -61712,7 +61709,7 @@
         <v>1385571.4</v>
       </c>
     </row>
-    <row r="207" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A207" s="35" t="s">
         <v>120</v>
       </c>
@@ -61870,7 +61867,7 @@
         <v>485.7</v>
       </c>
     </row>
-    <row r="208" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A208" s="35" t="s">
         <v>111</v>
       </c>
@@ -62028,7 +62025,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="209" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A209" s="35" t="s">
         <v>121</v>
       </c>
@@ -62186,7 +62183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A210" s="35" t="s">
         <v>122</v>
       </c>
@@ -62344,7 +62341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A211" s="35" t="s">
         <v>123</v>
       </c>
@@ -62502,7 +62499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A212" s="38" t="s">
         <v>126</v>
       </c>
@@ -62660,7 +62657,7 @@
         <v>20253318.100000001</v>
       </c>
     </row>
-    <row r="213" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A213" s="35" t="s">
         <v>119</v>
       </c>
@@ -62818,7 +62815,7 @@
         <v>20242787.100000001</v>
       </c>
     </row>
-    <row r="214" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A214" s="35" t="s">
         <v>120</v>
       </c>
@@ -62976,7 +62973,7 @@
         <v>9175.7999999999993</v>
       </c>
     </row>
-    <row r="215" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A215" s="35" t="s">
         <v>111</v>
       </c>
@@ -63134,7 +63131,7 @@
         <v>1355.2</v>
       </c>
     </row>
-    <row r="216" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A216" s="35" t="s">
         <v>121</v>
       </c>
@@ -63292,7 +63289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A217" s="35" t="s">
         <v>122</v>
       </c>
@@ -63450,7 +63447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A218" s="36" t="s">
         <v>123</v>
       </c>
@@ -63624,12 +63621,12 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="49"/>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -63643,7 +63640,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
       <c r="B2" s="59">
         <v>2005</v>
@@ -63673,7 +63670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>28</v>
       </c>
@@ -63689,7 +63686,7 @@
       <c r="I3" s="88"/>
       <c r="J3" s="88"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>30</v>
       </c>
@@ -63703,7 +63700,7 @@
       <c r="I4" s="90"/>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>31</v>
       </c>
@@ -63736,7 +63733,7 @@
         <v>3.7309939749923249</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>32</v>
       </c>
@@ -63769,7 +63766,7 @@
         <v>5.6499806201621317</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>33</v>
       </c>
@@ -63802,7 +63799,7 @@
         <v>2.4810285356363426</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
         <v>34</v>
       </c>
@@ -63835,7 +63832,7 @@
         <v>2.5123967378733791</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>35</v>
       </c>
@@ -63868,7 +63865,7 @@
         <v>8.7050094617556759</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>36</v>
       </c>
@@ -63901,7 +63898,7 @@
         <v>9.6445187287504943</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>37</v>
       </c>
@@ -63934,7 +63931,7 @@
         <v>7.8151377555600865</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>38</v>
       </c>
@@ -63967,7 +63964,7 @@
         <v>2.3513385938574549</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
         <v>39</v>
       </c>
@@ -64000,7 +63997,7 @@
         <v>1.6520571153621377</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
         <v>35</v>
       </c>
@@ -64033,7 +64030,7 @@
         <v>4.6163245279254195</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>37</v>
       </c>
@@ -64066,7 +64063,7 @@
         <v>3.0935169565563747</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="s">
         <v>40</v>
       </c>
@@ -64099,7 +64096,7 @@
         <v>-0.12072921581454121</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>41</v>
       </c>
@@ -64113,7 +64110,7 @@
       <c r="I17" s="89"/>
       <c r="J17" s="89"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
         <v>32</v>
       </c>
@@ -64146,7 +64143,7 @@
         <v>4.1012669535679613</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
         <v>33</v>
       </c>
@@ -64179,7 +64176,7 @@
         <v>-0.56451707785012406</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
         <v>34</v>
       </c>
@@ -64212,7 +64209,7 @@
         <v>1.5425657656958913</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
         <v>39</v>
       </c>
@@ -64245,7 +64242,7 @@
         <v>-0.62583404393035114</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
         <v>35</v>
       </c>
@@ -64278,7 +64275,7 @@
         <v>4.8968523679478348</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
         <v>42</v>
       </c>
@@ -64311,7 +64308,7 @@
         <v>7.0338747039298877</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
         <v>37</v>
       </c>
@@ -64344,7 +64341,7 @@
         <v>2.9467243604659688</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>43</v>
       </c>
@@ -64377,7 +64374,7 @@
         <v>1.0810301713664927</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="72" t="s">
         <v>44</v>
       </c>
@@ -64410,7 +64407,7 @@
         <v>1.2057357001882929</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
         <v>45</v>
       </c>
@@ -64443,7 +64440,7 @@
         <v>0.84375590267344869</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>46</v>
       </c>
@@ -64476,7 +64473,7 @@
         <v>5.4449816523236994</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="s">
         <v>47</v>
       </c>
@@ -64509,7 +64506,7 @@
         <v>7.9582782259971063</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="65" t="s">
         <v>48</v>
       </c>
@@ -64542,7 +64539,7 @@
         <v>3.5993390799097025</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>49</v>
       </c>
@@ -64556,7 +64553,7 @@
       <c r="I31" s="89"/>
       <c r="J31" s="89"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
         <v>50</v>
       </c>
@@ -64589,7 +64586,7 @@
         <v>32.928217634671952</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
         <v>52</v>
       </c>
@@ -64622,7 +64619,7 @@
         <v>3.7695370412966334</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
         <v>53</v>
       </c>
@@ -64655,7 +64652,7 @@
         <v>24.475947226971751</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>55</v>
       </c>
@@ -64669,7 +64666,7 @@
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="72" t="s">
         <v>56</v>
       </c>
@@ -64700,7 +64697,7 @@
         <v>-3.8730993909155798</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
         <v>57</v>
       </c>
@@ -64731,7 +64728,7 @@
         <v>-2.8920879187979143</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>58</v>
       </c>
@@ -64745,7 +64742,7 @@
       <c r="I38" s="63"/>
       <c r="J38" s="63"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="79" t="s">
         <v>59</v>
       </c>
@@ -64759,7 +64756,7 @@
       <c r="I39" s="63"/>
       <c r="J39" s="63"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
         <v>60</v>
       </c>
@@ -64773,7 +64770,7 @@
       <c r="I40" s="63"/>
       <c r="J40" s="63"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="79" t="s">
         <v>61</v>
       </c>
@@ -64787,7 +64784,7 @@
       <c r="I41" s="63"/>
       <c r="J41" s="63"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="147" t="s">
         <v>62</v>
       </c>
@@ -64801,7 +64798,7 @@
       <c r="I42" s="147"/>
       <c r="J42" s="147"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="79" t="s">
         <v>63</v>
       </c>
@@ -64815,7 +64812,7 @@
       <c r="I43" s="63"/>
       <c r="J43" s="63"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="79" t="s">
         <v>64</v>
       </c>
@@ -64829,7 +64826,7 @@
       <c r="I44" s="63"/>
       <c r="J44" s="63"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="79" t="s">
         <v>65</v>
       </c>
@@ -64843,7 +64840,7 @@
       <c r="I45" s="63"/>
       <c r="J45" s="63"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="147" t="s">
         <v>66</v>
       </c>
@@ -64857,7 +64854,7 @@
       <c r="I46" s="147"/>
       <c r="J46" s="147"/>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="79" t="s">
         <v>67</v>
       </c>
@@ -64871,7 +64868,7 @@
       <c r="I47" s="78"/>
       <c r="J47" s="78"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
         <v>68</v>
       </c>
@@ -64905,9 +64902,9 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
         <v>128</v>
       </c>
@@ -64922,7 +64919,7 @@
       <c r="H1" s="95"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="148" t="s">
         <v>130</v>
       </c>
@@ -64937,7 +64934,7 @@
       <c r="H2" s="151"/>
       <c r="I2" s="152"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="148" t="s">
         <v>132</v>
       </c>
@@ -64952,7 +64949,7 @@
       <c r="H3" s="151"/>
       <c r="I3" s="152"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="148" t="s">
         <v>134</v>
       </c>
@@ -64967,7 +64964,7 @@
       <c r="H4" s="156"/>
       <c r="I4" s="157"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="148" t="s">
         <v>136</v>
       </c>
@@ -64982,7 +64979,7 @@
       <c r="H5" s="151"/>
       <c r="I5" s="152"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="153" t="s">
         <v>138</v>
       </c>
@@ -65009,7 +65006,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="21.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="98" t="s">
         <v>146</v>
       </c>
@@ -65038,7 +65035,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>147</v>
       </c>
@@ -65067,7 +65064,7 @@
         <v>115.813786497389</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="92"/>
       <c r="C9" s="94"/>
@@ -65078,7 +65075,7 @@
       <c r="H9" s="94"/>
       <c r="I9" s="94"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
         <v>148</v>
       </c>
@@ -65091,7 +65088,7 @@
       <c r="H10" s="95"/>
       <c r="I10" s="95"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -65099,13 +65096,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>(D8+E8)/2</f>
         <v>119.78314488051799</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="148" t="s">
         <v>130</v>
       </c>
@@ -65120,7 +65117,7 @@
       <c r="H16" s="151"/>
       <c r="I16" s="152"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="148" t="s">
         <v>132</v>
       </c>
@@ -65135,7 +65132,7 @@
       <c r="H17" s="151"/>
       <c r="I17" s="152"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="148" t="s">
         <v>134</v>
       </c>
@@ -65150,7 +65147,7 @@
       <c r="H18" s="156"/>
       <c r="I18" s="157"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="148" t="s">
         <v>136</v>
       </c>
@@ -65165,7 +65162,7 @@
       <c r="H19" s="151"/>
       <c r="I19" s="152"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="153" t="s">
         <v>138</v>
       </c>
@@ -65192,7 +65189,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="98" t="s">
         <v>146</v>
       </c>
@@ -65221,7 +65218,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>147</v>
       </c>
@@ -65250,7 +65247,7 @@
         <v>1378.0906560592</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="102" t="s">
         <v>149</v>
       </c>
@@ -65263,7 +65260,7 @@
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -65271,13 +65268,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>(D22+E22)/2</f>
         <v>1182.2424143609051</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="148" t="s">
         <v>130</v>
       </c>
@@ -65292,7 +65289,7 @@
       <c r="H29" s="151"/>
       <c r="I29" s="152"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="148" t="s">
         <v>132</v>
       </c>
@@ -65307,7 +65304,7 @@
       <c r="H30" s="151"/>
       <c r="I30" s="152"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="148" t="s">
         <v>134</v>
       </c>
@@ -65322,7 +65319,7 @@
       <c r="H31" s="156"/>
       <c r="I31" s="157"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="148" t="s">
         <v>136</v>
       </c>
@@ -65337,7 +65334,7 @@
       <c r="H32" s="151"/>
       <c r="I32" s="152"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="153" t="s">
         <v>138</v>
       </c>
@@ -65364,7 +65361,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="21.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="98" t="s">
         <v>146</v>
       </c>
@@ -65393,7 +65390,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="100" t="s">
         <v>147</v>
       </c>
@@ -65422,7 +65419,7 @@
         <v>375.04878223800802</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="102" t="s">
         <v>151</v>
       </c>
@@ -65435,7 +65432,7 @@
       <c r="H36" s="95"/>
       <c r="I36" s="95"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -65443,13 +65440,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>(D35+E35)/2</f>
         <v>212.14810104181601</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="148" t="s">
         <v>130</v>
       </c>
@@ -65464,7 +65461,7 @@
       <c r="H42" s="151"/>
       <c r="I42" s="152"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="148" t="s">
         <v>132</v>
       </c>
@@ -65479,7 +65476,7 @@
       <c r="H43" s="151"/>
       <c r="I43" s="152"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="148" t="s">
         <v>134</v>
       </c>
@@ -65494,7 +65491,7 @@
       <c r="H44" s="156"/>
       <c r="I44" s="157"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="148" t="s">
         <v>136</v>
       </c>
@@ -65509,7 +65506,7 @@
       <c r="H45" s="151"/>
       <c r="I45" s="152"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="153" t="s">
         <v>138</v>
       </c>
@@ -65536,7 +65533,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="21.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="98" t="s">
         <v>146</v>
       </c>
@@ -65565,7 +65562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="100" t="s">
         <v>147</v>
       </c>
@@ -65594,7 +65591,7 @@
         <v>368.87164563360801</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="102" t="s">
         <v>151</v>
       </c>
@@ -65607,7 +65604,7 @@
       <c r="H49" s="95"/>
       <c r="I49" s="95"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -65615,7 +65612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>(D48+E48)/2</f>
         <v>169.441079081721</v>
@@ -65623,6 +65620,33 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:I18"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="A6:B6"/>
@@ -65632,33 +65656,6 @@
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:I44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=ITF_OUTLOOK_2023_URB_PASS&amp;Coords=[SCENARIO].[CURRENT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
@@ -65682,20 +65679,20 @@
   <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="10" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="B1" s="39" t="s">
         <v>153</v>
       </c>
@@ -65721,7 +65718,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
         <v>4</v>
       </c>
@@ -65757,7 +65754,7 @@
         <v>1.3770794555473598</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="158"/>
       <c r="B3" s="41" t="s">
         <v>155</v>
@@ -65791,7 +65788,7 @@
         <v>1.5636301514022912</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="158"/>
       <c r="B4" s="41" t="s">
         <v>156</v>
@@ -65801,31 +65798,31 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f>'REF2020'!G10*$C$24/('REF2020'!$F$10*$C$24)</f>
+        <f>'REF2020'!G10/('REF2020'!$F$10)</f>
         <v>1.8660187384157199</v>
       </c>
       <c r="E4">
-        <f>'REF2020'!H10*$C$24/('REF2020'!$F$10*$C$24)</f>
+        <f>'REF2020'!H10/('REF2020'!$F$10)</f>
         <v>2.109681962563787</v>
       </c>
       <c r="F4">
-        <f>'REF2020'!I10*$C$24/('REF2020'!$F$10*$C$24)</f>
-        <v>2.3021441819012414</v>
+        <f>'REF2020'!I10/('REF2020'!$F$10)</f>
+        <v>2.3021441819012418</v>
       </c>
       <c r="G4">
-        <f>'REF2020'!J10*$C$24/('REF2020'!$F$10*$C$24)</f>
+        <f>'REF2020'!J10/('REF2020'!$F$10)</f>
         <v>2.4901191522324551</v>
       </c>
       <c r="H4">
-        <f>'REF2020'!K10*$C$24/('REF2020'!$F$10*$C$24)</f>
+        <f>'REF2020'!K10/('REF2020'!$F$10)</f>
         <v>2.6333098639742309</v>
       </c>
       <c r="I4">
-        <f>'REF2020'!L10*$C$24/('REF2020'!$F$10*$C$24)</f>
+        <f>'REF2020'!L10/('REF2020'!$F$10)</f>
         <v>2.7667137407237594</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="158"/>
       <c r="B5" s="41" t="s">
         <v>157</v>
@@ -65859,7 +65856,7 @@
         <v>2.2758182573255583</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="158"/>
       <c r="B6" s="41" t="s">
         <v>158</v>
@@ -65893,7 +65890,7 @@
         <v>1.8939264035939483</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="158"/>
       <c r="B7" s="41" t="s">
         <v>159</v>
@@ -65927,11 +65924,11 @@
         <v>1.4807524556023004</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="107"/>
       <c r="B8" s="41"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="107"/>
       <c r="B9" s="41" t="s">
         <v>160</v>
@@ -65965,7 +65962,7 @@
         <v>2.7667137407237594</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="104" t="s">
         <v>161</v>
       </c>
@@ -66000,11 +65997,9 @@
         <f>'REF2020'!L10*$C$24</f>
         <v>2629.2573800612795</v>
       </c>
-      <c r="J10" s="125" t="s">
-        <v>163</v>
-      </c>
+      <c r="J10" s="125"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="107"/>
       <c r="B11" s="41"/>
       <c r="C11" s="108"/>
@@ -66015,7 +66010,7 @@
       <c r="H11" s="108"/>
       <c r="I11" s="108"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="107"/>
       <c r="B12" s="41"/>
       <c r="C12" s="108"/>
@@ -66026,9 +66021,9 @@
       <c r="H12" s="108"/>
       <c r="I12" s="108"/>
     </row>
-    <row r="13" spans="1:32" ht="26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="131"/>
       <c r="C13" s="132"/>
@@ -66062,9 +66057,9 @@
       <c r="AE13" s="133"/>
       <c r="AF13" s="133"/>
     </row>
-    <row r="14" spans="1:32" s="139" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" s="139" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="137"/>
       <c r="C14" s="138"/>
@@ -66075,7 +66070,7 @@
       <c r="H14" s="138"/>
       <c r="I14" s="138"/>
     </row>
-    <row r="15" spans="1:32" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>153</v>
       </c>
@@ -66170,9 +66165,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>154</v>
@@ -66298,9 +66293,9 @@
         <v>1.1353708896576307</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>155</v>
@@ -66426,9 +66421,9 @@
         <v>1.2417042667769425</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" s="41" t="s">
         <v>156</v>
@@ -66554,9 +66549,9 @@
         <v>1.747647912564898</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="41" t="s">
         <v>157</v>
@@ -66682,12 +66677,12 @@
         <v>1.5363478484676651</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="41" t="s">
         <v>166</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>167</v>
       </c>
       <c r="C20" s="41">
         <v>0</v>
@@ -66809,9 +66804,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="41" t="s">
         <v>159</v>
@@ -66937,12 +66932,12 @@
         <v>1.3034261900323891</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" s="109">
         <f>'Potencia - Activity'!W15</f>
@@ -67065,12 +67060,12 @@
         <v>1280340.6000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24" s="109">
         <f>'Potencia - Activity'!W13/C23</f>
@@ -67193,12 +67188,12 @@
         <v>3.0011906987874943</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
         <v>153</v>
       </c>
@@ -67212,12 +67207,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="41" t="s">
         <v>171</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>172</v>
       </c>
       <c r="C27">
         <f>'Fit for 55'!F7/'Fit for 55'!$F$7</f>
@@ -67232,12 +67227,12 @@
         <v>1.2221832533004409</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28">
         <f>'Fit for 55'!F6/'Fit for 55'!$F$6</f>
@@ -67252,12 +67247,12 @@
         <v>1.5716663896405059</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29">
         <f>'Fit for 55'!F10/'Fit for 55'!$F$10</f>
@@ -67272,12 +67267,12 @@
         <v>1.9801197115807634</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30">
         <f>'Fit for 55'!F9/'Fit for 55'!$F$9</f>
@@ -67292,12 +67287,12 @@
         <v>1.9404541617289481</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -67309,12 +67304,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32">
         <f>'Fit for 55'!F8/'Fit for 55'!$F$8</f>
@@ -67329,8 +67324,8 @@
         <v>1.2263982315693505</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:32" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:32" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="39" t="s">
         <v>153</v>
       </c>
@@ -67353,9 +67348,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B36" s="41" t="s">
         <v>154</v>
@@ -67385,9 +67380,9 @@
         <v>1.1656582772866988</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B37" s="41" t="s">
         <v>155</v>
@@ -67416,12 +67411,12 @@
         <v>1.7678630183170154</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>178</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>179</v>
       </c>
       <c r="C38" s="93"/>
       <c r="D38" s="93"/>
@@ -67430,9 +67425,9 @@
       <c r="G38" s="93"/>
       <c r="H38" s="93"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B39" s="41" t="s">
         <v>157</v>
@@ -67461,9 +67456,9 @@
         <v>2.1769906544073776</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" s="41" t="s">
         <v>158</v>
@@ -67485,9 +67480,9 @@
       </c>
       <c r="H40" s="93"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" s="41" t="s">
         <v>159</v>
@@ -67516,7 +67511,7 @@
         <v>0.96686212916609948</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
         <v>153</v>
       </c>
@@ -67563,9 +67558,9 @@
       <c r="AE45" s="40"/>
       <c r="AF45" s="40"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>154</v>
@@ -67595,9 +67590,9 @@
         <v>1.1353708896576307</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>155</v>
@@ -67627,9 +67622,9 @@
         <v>1.2417042667769425</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48" s="41" t="s">
         <v>156</v>
@@ -67659,9 +67654,9 @@
         <v>1.747647912564898</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B49" s="41" t="s">
         <v>157</v>
@@ -67691,12 +67686,12 @@
         <v>1.5363478484676651</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -67723,9 +67718,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>159</v>
@@ -67755,7 +67750,7 @@
         <v>1.3034261900323891</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -67787,7 +67782,7 @@
         <v>1.3770794555473598</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -67819,7 +67814,7 @@
         <v>1.5636301514022912</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -67847,7 +67842,7 @@
         <v>2.7667137407237594</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -67879,19 +67874,19 @@
         <v>2.2758182573255583</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C56">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -67923,9 +67918,9 @@
         <v>1.4807524556023004</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B58" s="41" t="s">
         <v>154</v>
@@ -67955,9 +67950,9 @@
         <v>1.1656582772866988</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" s="41" t="s">
         <v>155</v>
@@ -67987,9 +67982,9 @@
         <v>1.7678630183170154</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="41" t="s">
         <v>156</v>
@@ -68019,9 +68014,9 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B61" s="41" t="s">
         <v>157</v>
@@ -68051,12 +68046,12 @@
         <v>2.1769906544073776</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="5"/>
@@ -68083,9 +68078,9 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63" s="41" t="s">
         <v>159</v>
@@ -68115,9 +68110,9 @@
         <v>0.96686212916609948</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C67" s="40">
         <v>2021</v>
@@ -68138,9 +68133,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B68" s="41" t="s">
         <v>154</v>
@@ -68170,9 +68165,9 @@
         <v>5905715.7000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B69" s="41" t="s">
         <v>155</v>
@@ -68202,9 +68197,9 @@
         <v>727545.2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" s="41" t="s">
         <v>156</v>
@@ -68234,9 +68229,9 @@
         <v>3842546.3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B71" s="41" t="s">
         <v>157</v>
@@ -68266,12 +68261,12 @@
         <v>969402</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B72" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C72" s="41"/>
       <c r="D72" s="41"/>
@@ -68280,9 +68275,9 @@
       <c r="G72" s="41"/>
       <c r="H72" s="41"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B73" s="41" t="s">
         <v>159</v>
@@ -68312,7 +68307,7 @@
         <v>189503.7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -68344,7 +68339,7 @@
         <v>5107597.8222544007</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -68376,7 +68371,7 @@
         <v>538308.98415616422</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -68408,7 +68403,7 @@
         <v>2502481.2982752658</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -68440,12 +68435,12 @@
         <v>741027.4592281722</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C78" s="111"/>
       <c r="D78" s="112"/>
@@ -68454,7 +68449,7 @@
       <c r="G78" s="111"/>
       <c r="H78" s="111"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -68486,9 +68481,9 @@
         <v>155370.8109907734</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B80" s="41" t="s">
         <v>154</v>
@@ -68518,9 +68513,9 @@
         <v>1378090.6560591999</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B81" s="41" t="s">
         <v>155</v>
@@ -68550,9 +68545,9 @@
         <v>375048.78223800799</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B82" s="41" t="s">
         <v>156</v>
@@ -68564,9 +68559,9 @@
       <c r="G82" s="111"/>
       <c r="H82" s="111"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B83" s="41" t="s">
         <v>157</v>
@@ -68596,12 +68591,12 @@
         <v>368871.64563360799</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C84" s="111"/>
       <c r="D84" s="111"/>
@@ -68610,9 +68605,9 @@
       <c r="G84" s="111"/>
       <c r="H84" s="111"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B85" s="41" t="s">
         <v>159</v>
@@ -68642,10 +68637,10 @@
         <v>115813.78649738901</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="114" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C87" s="115">
         <f>(C68-C74)/C68</f>
@@ -68672,9 +68667,9 @@
         <v>0.13514329478230716</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88" s="117" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C88" s="118">
         <f t="shared" ref="C88:H88" si="8">(C69-C75)/C69</f>
@@ -68701,9 +68696,9 @@
         <v>0.26010234944005645</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B89" s="117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C89" s="118">
         <f t="shared" ref="C89:H89" si="9">(C70-C76)/C70</f>
@@ -68730,9 +68725,9 @@
         <v>0.34874400907667241</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" s="117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C90" s="118">
         <f t="shared" ref="C90:H90" si="10">(C71-C77)/C71</f>
@@ -68759,9 +68754,9 @@
         <v>0.23558290654633249</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B91" s="117" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C91" s="118"/>
       <c r="D91" s="118"/>
@@ -68770,9 +68765,9 @@
       <c r="G91" s="118"/>
       <c r="H91" s="119"/>
     </row>
-    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C92" s="121">
         <f t="shared" ref="C92:H92" si="11">(C73-C79)/C73</f>
@@ -68817,21 +68812,21 @@
   </sheetPr>
   <dimension ref="A1:AF47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1" s="124">
         <v>2021</v>
@@ -68855,7 +68850,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
         <v>4</v>
       </c>
@@ -68891,7 +68886,7 @@
         <v>1.6398655051722586</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="158"/>
       <c r="B3" s="126" t="s">
         <v>155</v>
@@ -68928,10 +68923,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="158"/>
       <c r="B4" s="126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="111" t="e">
         <f t="shared" ref="C4:I6" si="2">C44/$C44</f>
@@ -68962,10 +68957,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J4" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="158"/>
       <c r="B5" s="41" t="s">
         <v>157</v>
@@ -68999,10 +68994,10 @@
         <v>1.8121335773537945</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="158"/>
       <c r="B6" s="126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="111">
         <f t="shared" si="2"/>
@@ -69034,7 +69029,7 @@
       </c>
       <c r="J6" s="127"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="158"/>
       <c r="B7" s="41" t="s">
         <v>159</v>
@@ -69061,15 +69056,15 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="107"/>
     </row>
-    <row r="10" spans="1:32" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="131"/>
       <c r="C10" s="132"/>
@@ -69103,9 +69098,9 @@
       <c r="AE10" s="133"/>
       <c r="AF10" s="133"/>
     </row>
-    <row r="11" spans="1:32" s="139" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" s="139" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="137"/>
       <c r="C11" s="138"/>
@@ -69116,9 +69111,9 @@
       <c r="H11" s="138"/>
       <c r="I11" s="138"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="40">
         <v>2021</v>
@@ -69211,9 +69206,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>154</v>
@@ -69339,7 +69334,7 @@
         <v>215611.4</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="159"/>
       <c r="B15" s="41" t="s">
         <v>155</v>
@@ -69465,7 +69460,7 @@
         <v>2766402.3</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="159"/>
       <c r="B16" s="41" t="s">
         <v>156</v>
@@ -69591,7 +69586,7 @@
         <v>105867.9</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="159"/>
       <c r="B17" s="41" t="s">
         <v>157</v>
@@ -69717,10 +69712,10 @@
         <v>654512.19999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="159"/>
       <c r="B18" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="110">
         <f>('Potencia - Activity'!W188)</f>
@@ -69843,7 +69838,7 @@
         <v>502364.1</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="159"/>
       <c r="B19" s="41" t="s">
         <v>159</v>
@@ -69969,12 +69964,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="113">
         <f>C14/(C14+C15)</f>
@@ -70097,10 +70092,10 @@
         <v>7.2303960240021711E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="159"/>
       <c r="B22" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="109">
         <f>C18/('Potencia - Activity'!W189+'Potencia - Activity'!W205)</f>
@@ -70223,7 +70218,7 @@
         <v>0.30413291315918667</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="159"/>
       <c r="B23" s="41"/>
       <c r="C23" s="109"/>
@@ -70257,10 +70252,10 @@
       <c r="AE23" s="109"/>
       <c r="AF23" s="109"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="159"/>
       <c r="B24" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="109">
         <f>'Potencia - Activity'!V21/'Potencia - Activity'!V22</f>
@@ -70383,7 +70378,7 @@
         <v>6.2390158341419832</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="135"/>
       <c r="B25" s="41"/>
       <c r="C25" s="109"/>
@@ -70417,7 +70412,7 @@
       <c r="AE25" s="109"/>
       <c r="AF25" s="109"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="135"/>
       <c r="B26" s="41"/>
       <c r="C26" s="109"/>
@@ -70451,9 +70446,9 @@
       <c r="AE26" s="109"/>
       <c r="AF26" s="109"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" s="124">
         <v>2021</v>
@@ -70477,7 +70472,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="158" t="s">
         <v>4</v>
       </c>
@@ -70516,7 +70511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="158"/>
       <c r="B29" s="126" t="s">
         <v>155</v>
@@ -70553,10 +70548,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="158"/>
       <c r="B30" s="126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="111">
         <v>0</v>
@@ -70580,10 +70575,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="144" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="158"/>
       <c r="B31" s="41" t="s">
         <v>157</v>
@@ -70617,10 +70612,10 @@
         <v>725.72854454628327</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="158"/>
       <c r="B32" s="126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="111">
         <f>'REF2020'!F15</f>
@@ -70652,7 +70647,7 @@
       </c>
       <c r="J32" s="127"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="158"/>
       <c r="B33" s="41" t="s">
         <v>159</v>
@@ -70679,12 +70674,12 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="124">
         <v>2021</v>
@@ -70708,9 +70703,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B36" s="41" t="s">
         <v>154</v>
@@ -70744,9 +70739,9 @@
         <v>215611.4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" s="41" t="s">
         <v>155</v>
@@ -70780,9 +70775,9 @@
         <v>2766402.3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B38" s="41" t="s">
         <v>156</v>
@@ -70816,9 +70811,9 @@
         <v>105867.9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" s="41" t="s">
         <v>157</v>
@@ -70852,12 +70847,12 @@
         <v>654512.19999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" s="111">
         <f>SUMPRODUCT($C$14:$AF$19*($B$14:$B$19=$B40)*($C$13:$AF$13=C$35))</f>
@@ -70888,9 +70883,9 @@
         <v>502364.1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="41" t="s">
         <v>159</v>
@@ -70924,7 +70919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -70960,7 +70955,7 @@
         <v>178794.47287692747</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -70996,7 +70991,7 @@
         <v>2320288.2387046982</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -71032,7 +71027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -71068,12 +71063,12 @@
         <v>725728.54454628332</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46" s="111">
         <f t="shared" si="8"/>
@@ -71104,7 +71099,7 @@
         <v>395689.76472605631</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -71162,17 +71157,17 @@
   </sheetPr>
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AE6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>153</v>
       </c>
@@ -71267,7 +71262,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>154</v>
       </c>
@@ -71391,7 +71386,7 @@
         <v>1.3770794555473598</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>155</v>
       </c>
@@ -71515,7 +71510,7 @@
         <v>1.5636301514022912</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>156</v>
       </c>
@@ -71639,7 +71634,7 @@
         <v>2.7667137407237594</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>157</v>
       </c>
@@ -71763,9 +71758,9 @@
         <v>2.2758182573255583</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="41">
         <v>1</v>
@@ -71859,7 +71854,7 @@
       </c>
       <c r="AF6" s="41"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>159</v>
       </c>
@@ -71995,13 +71990,13 @@
   </sheetPr>
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>153</v>
       </c>
@@ -72096,7 +72091,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="134" t="s">
         <v>154</v>
       </c>
@@ -72221,7 +72216,7 @@
         <v>1.6398655051722586</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="134" t="s">
         <v>155</v>
       </c>
@@ -72346,7 +72341,7 @@
         <v>1.3989632663284073</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="134" t="s">
         <v>156</v>
       </c>
@@ -72441,7 +72436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="134" t="s">
         <v>157</v>
       </c>
@@ -72566,9 +72561,9 @@
         <v>1.8121335773537945</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="134" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <f>'Comparison - Freight'!C6</f>
@@ -72691,7 +72686,7 @@
         <v>1.3948085414737972</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="134" t="s">
         <v>159</v>
       </c>
@@ -72786,7 +72781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="125"/>
     </row>
   </sheetData>
@@ -72795,15 +72790,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -73032,6 +73018,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -73044,14 +73039,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18FEDB8C-86F5-4E68-9A08-E66F03358ABC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D041322-2A4D-46CC-93A1-0EBF7EC2A3DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -73066,6 +73053,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18FEDB8C-86F5-4E68-9A08-E66F03358ABC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
